--- a/Supplement/Data/Phaeocystis.xlsx
+++ b/Supplement/Data/Phaeocystis.xlsx
@@ -401,7 +401,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>3911</v>
+        <v>2939</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -429,7 +429,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>3475</v>
+        <v>2705</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>3393</v>
+        <v>2621</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -476,7 +476,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P7-t5</t>
+          <t>P9-t9</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -485,15 +485,15 @@
         </is>
       </c>
       <c r="C5">
-        <v>2847</v>
+        <v>2586</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -504,7 +504,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>P9-t9</t>
+          <t>P7-t5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -513,15 +513,15 @@
         </is>
       </c>
       <c r="C6">
-        <v>2799</v>
+        <v>2134</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E6">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>2759</v>
+        <v>2070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -560,7 +560,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>P11-t7</t>
+          <t>P11-t6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>2634</v>
+        <v>2006</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="E8">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -588,7 +588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>P11-t6</t>
+          <t>P11-t7</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>2618</v>
+        <v>1995</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -605,7 +605,7 @@
         </is>
       </c>
       <c r="E9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>2408</v>
+        <v>1817</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>2351</v>
+        <v>1776</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>1702</v>
+        <v>1316</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -700,7 +700,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>P9-t6</t>
+          <t>P9-t5</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>1595</v>
+        <v>1257</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="E13">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -728,7 +728,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>P9-t5</t>
+          <t>P7-t9</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -737,15 +737,15 @@
         </is>
       </c>
       <c r="C14">
-        <v>1593</v>
+        <v>1213</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E14">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>P7-t9</t>
+          <t>P9-t6</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -765,15 +765,15 @@
         </is>
       </c>
       <c r="C15">
-        <v>1549</v>
+        <v>1191</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E15">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -784,7 +784,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>P3-t6</t>
+          <t>P11-t5</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>1485</v>
+        <v>1169</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -801,18 +801,18 @@
         </is>
       </c>
       <c r="E16">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>P11-t5</t>
+          <t>P3-t6</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>1411</v>
+        <v>1142</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -829,11 +829,11 @@
         </is>
       </c>
       <c r="E17">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>1366</v>
+        <v>1017</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>P4-t5</t>
+          <t>P3-t8</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -877,26 +877,26 @@
         </is>
       </c>
       <c r="C19">
-        <v>1020</v>
+        <v>772</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E19">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>P7-t4</t>
+          <t>P4-t5</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>973</v>
+        <v>760</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -913,18 +913,18 @@
         </is>
       </c>
       <c r="E20">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>P3-t8</t>
+          <t>P7-t4</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -933,19 +933,19 @@
         </is>
       </c>
       <c r="C21">
-        <v>950</v>
+        <v>756</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E21">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>681</v>
+        <v>550</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>489</v>
+        <v>417</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1008,7 +1008,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>P1-t5</t>
+          <t>P4-t4</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1017,7 +1017,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>422</v>
+        <v>351</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1025,18 +1025,18 @@
         </is>
       </c>
       <c r="E24">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>P4-t4</t>
+          <t>P1-t5</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1045,7 +1045,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>422</v>
+        <v>322</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1053,11 +1053,11 @@
         </is>
       </c>
       <c r="E25">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>400</v>
+        <v>306</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>383</v>
+        <v>304</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>P1-t7</t>
+          <t>P2-t6</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1157,15 +1157,15 @@
         </is>
       </c>
       <c r="C29">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E29">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>P2-t6</t>
+          <t>P11-t4</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1185,26 +1185,26 @@
         </is>
       </c>
       <c r="C30">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E30">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>P8-t5</t>
+          <t>P9-t4</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1213,7 +1213,7 @@
         </is>
       </c>
       <c r="C31">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1221,18 +1221,18 @@
         </is>
       </c>
       <c r="E31">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>P1-t6</t>
+          <t>P1-t7</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1241,7 +1241,7 @@
         </is>
       </c>
       <c r="C32">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="E32">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -1260,7 +1260,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>P9-t4</t>
+          <t>P8-t5</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1277,18 +1277,18 @@
         </is>
       </c>
       <c r="E33">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>P11-t4</t>
+          <t>P10-t7</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1297,15 +1297,15 @@
         </is>
       </c>
       <c r="C34">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E34">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1316,7 +1316,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>P10-t7</t>
+          <t>P1-t6</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1325,26 +1325,26 @@
         </is>
       </c>
       <c r="C35">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E35">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>P12-t5</t>
+          <t>P8-t4</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1353,26 +1353,26 @@
         </is>
       </c>
       <c r="C36">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E36">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>P2-t9</t>
+          <t>P4-t7</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1381,26 +1381,26 @@
         </is>
       </c>
       <c r="C37">
-        <v>217</v>
+        <v>180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E37">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>P4-t7</t>
+          <t>P2-t9</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1409,26 +1409,26 @@
         </is>
       </c>
       <c r="C38">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E38">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>P8-t4</t>
+          <t>P12-t5</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1437,26 +1437,26 @@
         </is>
       </c>
       <c r="C39">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E39">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>P8-t7</t>
+          <t>P8-t6</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1465,7 +1465,7 @@
         </is>
       </c>
       <c r="C40">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         </is>
       </c>
       <c r="E40">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>P1-t4</t>
+          <t>P8-t7</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1493,26 +1493,26 @@
         </is>
       </c>
       <c r="C41">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E41">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>P8-t6</t>
+          <t>P1-t4</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1521,26 +1521,26 @@
         </is>
       </c>
       <c r="C42">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E42">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>P12-t6</t>
+          <t>P10-t8</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1549,15 +1549,15 @@
         </is>
       </c>
       <c r="C43">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E43">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>P10-t8</t>
+          <t>P12-t6</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1577,15 +1577,15 @@
         </is>
       </c>
       <c r="C44">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E44">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>P5-t1</t>
+          <t>P8-t1</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1605,11 +1605,11 @@
         </is>
       </c>
       <c r="C45">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E45">
@@ -1624,7 +1624,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>P8-t1</t>
+          <t>P5-t1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1633,11 +1633,11 @@
         </is>
       </c>
       <c r="C46">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E46">
@@ -1661,7 +1661,7 @@
         </is>
       </c>
       <c r="C47">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1680,7 +1680,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>P1-t1</t>
+          <t>P10-t9</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1689,26 +1689,26 @@
         </is>
       </c>
       <c r="C48">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E48">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>P10-t9</t>
+          <t>P1-t1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1717,26 +1717,26 @@
         </is>
       </c>
       <c r="C49">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E49">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>P1-t8</t>
+          <t>P5-t6</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1745,26 +1745,26 @@
         </is>
       </c>
       <c r="C50">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E50">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>P5-t6</t>
+          <t>P2-t2</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="C51">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1781,18 +1781,18 @@
         </is>
       </c>
       <c r="E51">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>P2-t2</t>
+          <t>P1-t8</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1801,15 +1801,15 @@
         </is>
       </c>
       <c r="C52">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E52">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1829,7 +1829,7 @@
         </is>
       </c>
       <c r="C53">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1857,7 +1857,7 @@
         </is>
       </c>
       <c r="C54">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         </is>
       </c>
       <c r="C55">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>P2-t1</t>
+          <t>P8-t9</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1913,26 +1913,26 @@
         </is>
       </c>
       <c r="C56">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E56">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>P11-t2</t>
+          <t>P2-t1</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1941,26 +1941,26 @@
         </is>
       </c>
       <c r="C57">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E57">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>P5-t2</t>
+          <t>P11-t2</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1969,11 +1969,11 @@
         </is>
       </c>
       <c r="C58">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E58">
@@ -1981,14 +1981,14 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>P12-t2</t>
+          <t>P10-t6</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1997,15 +1997,15 @@
         </is>
       </c>
       <c r="C59">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E59">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>P10-t6</t>
+          <t>P12-t2</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2025,15 +2025,15 @@
         </is>
       </c>
       <c r="C60">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E60">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
@@ -2044,7 +2044,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>P8-t9</t>
+          <t>P5-t2</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2053,15 +2053,15 @@
         </is>
       </c>
       <c r="C61">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E61">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         </is>
       </c>
       <c r="C62">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         </is>
       </c>
       <c r="C63">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2128,7 +2128,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>P9-t2</t>
+          <t>P2-t5</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2137,19 +2137,19 @@
         </is>
       </c>
       <c r="C64">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E64">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2165,7 +2165,7 @@
         </is>
       </c>
       <c r="C65">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2184,7 +2184,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>P3-t2</t>
+          <t>P9-t2</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="C66">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2205,14 +2205,14 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>P2-t5</t>
+          <t>P3-t2</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2221,15 +2221,15 @@
         </is>
       </c>
       <c r="C67">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E67">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         </is>
       </c>
       <c r="C68">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>P7-t2</t>
+          <t>P2-t3</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2277,26 +2277,26 @@
         </is>
       </c>
       <c r="C69">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E69">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>P7-t3</t>
+          <t>P7-t2</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2305,7 +2305,7 @@
         </is>
       </c>
       <c r="C70">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         </is>
       </c>
       <c r="E70">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
@@ -2324,7 +2324,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>P2-t3</t>
+          <t>P7-t3</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2333,11 +2333,11 @@
         </is>
       </c>
       <c r="C71">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E71">
@@ -2345,14 +2345,14 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>P1-t9</t>
+          <t>P1-t3</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="C72">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         </is>
       </c>
       <c r="E72">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -2380,7 +2380,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>P1-t3</t>
+          <t>P6-t2</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2389,26 +2389,26 @@
         </is>
       </c>
       <c r="C73">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E73">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>P6-t2</t>
+          <t>P1-t9</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2417,19 +2417,19 @@
         </is>
       </c>
       <c r="C74">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E74">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
         </is>
       </c>
       <c r="C75">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="C76">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -2492,7 +2492,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>P1-t2</t>
+          <t>P9-t3</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2501,26 +2501,26 @@
         </is>
       </c>
       <c r="C77">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E77">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>P9-t3</t>
+          <t>P10-t3</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2529,11 +2529,11 @@
         </is>
       </c>
       <c r="C78">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E78">
@@ -2541,14 +2541,14 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>P10-t3</t>
+          <t>P1-t2</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2557,19 +2557,19 @@
         </is>
       </c>
       <c r="C79">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E79">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
         </is>
       </c>
       <c r="C80">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         </is>
       </c>
       <c r="C81">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2632,7 +2632,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>P8-t2</t>
+          <t>P2-t4</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2641,19 +2641,19 @@
         </is>
       </c>
       <c r="C82">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E82">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
         </is>
       </c>
       <c r="C83">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>P5-t9</t>
+          <t>P8-t2</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2697,15 +2697,15 @@
         </is>
       </c>
       <c r="C84">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E84">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>P2-t4</t>
+          <t>P5-t9</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2725,7 +2725,7 @@
         </is>
       </c>
       <c r="C85">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -2733,18 +2733,18 @@
         </is>
       </c>
       <c r="E85">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>P4-t3</t>
+          <t>P5-t5</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2753,15 +2753,15 @@
         </is>
       </c>
       <c r="C86">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E86">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2772,7 +2772,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>P5-t5</t>
+          <t>P4-t3</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2781,15 +2781,15 @@
         </is>
       </c>
       <c r="C87">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E87">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
@@ -2809,7 +2809,7 @@
         </is>
       </c>
       <c r="C88">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2828,7 +2828,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>P4-t8</t>
+          <t>P12-t9</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2837,7 +2837,7 @@
         </is>
       </c>
       <c r="C89">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2845,18 +2845,18 @@
         </is>
       </c>
       <c r="E89">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>P12-t9</t>
+          <t>P4-t8</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2865,7 +2865,7 @@
         </is>
       </c>
       <c r="C90">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2873,18 +2873,18 @@
         </is>
       </c>
       <c r="E90">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>P4-t9</t>
+          <t>P8-t3</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2893,15 +2893,15 @@
         </is>
       </c>
       <c r="C91">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E91">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>P8-t3</t>
+          <t>P4-t9</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2921,15 +2921,15 @@
         </is>
       </c>
       <c r="C92">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E92">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="C93">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         </is>
       </c>
       <c r="C94">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>P12-t3</t>
+          <t>P6-t7</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3009,22 +3009,22 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E95">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>P6-t7</t>
+          <t>P12-t3</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -3033,19 +3033,19 @@
         </is>
       </c>
       <c r="C96">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E96">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
     </row>
@@ -3061,7 +3061,7 @@
         </is>
       </c>
       <c r="C97">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         </is>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>

--- a/Supplement/Data/Phaeocystis.xlsx
+++ b/Supplement/Data/Phaeocystis.xlsx
@@ -392,7 +392,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>P11-t8</t>
+          <t>P9-t8</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -401,7 +401,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>2939</v>
+        <v>3235</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -413,14 +413,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>P9-t7</t>
+          <t>P9-t9</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -429,7 +429,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>2705</v>
+        <v>3195</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -437,7 +437,7 @@
         </is>
       </c>
       <c r="E3">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -448,7 +448,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>P9-t8</t>
+          <t>P11-t8</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>2621</v>
+        <v>2908</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -469,14 +469,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>P9-t9</t>
+          <t>P9-t7</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>2586</v>
+        <v>2901</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="E5">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>2134</v>
+        <v>2179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>P7-t6</t>
+          <t>P11-t6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -541,11 +541,11 @@
         </is>
       </c>
       <c r="C7">
-        <v>2070</v>
+        <v>2061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E7">
@@ -553,14 +553,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>P11-t6</t>
+          <t>P7-t6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -569,11 +569,11 @@
         </is>
       </c>
       <c r="C8">
-        <v>2006</v>
+        <v>2044</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E8">
@@ -581,7 +581,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>1995</v>
+        <v>2018</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -616,7 +616,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>P7-t7</t>
+          <t>P11-t9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -625,26 +625,26 @@
         </is>
       </c>
       <c r="C10">
-        <v>1817</v>
+        <v>1804</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E10">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>P11-t9</t>
+          <t>P7-t7</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -653,26 +653,26 @@
         </is>
       </c>
       <c r="C11">
-        <v>1776</v>
+        <v>1801</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E11">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>P3-t7</t>
+          <t>P9-t5</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>1316</v>
+        <v>1498</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -689,18 +689,18 @@
         </is>
       </c>
       <c r="E12">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>P9-t5</t>
+          <t>P3-t7</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -709,7 +709,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>1257</v>
+        <v>1456</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -717,18 +717,18 @@
         </is>
       </c>
       <c r="E13">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>P7-t9</t>
+          <t>P9-t6</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -737,15 +737,15 @@
         </is>
       </c>
       <c r="C14">
-        <v>1213</v>
+        <v>1440</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E14">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>P9-t6</t>
+          <t>P11-t5</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>1191</v>
+        <v>1366</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -773,18 +773,18 @@
         </is>
       </c>
       <c r="E15">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>P11-t5</t>
+          <t>P3-t6</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -793,7 +793,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>1169</v>
+        <v>1325</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -801,18 +801,18 @@
         </is>
       </c>
       <c r="E16">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>P3-t6</t>
+          <t>P7-t9</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -821,19 +821,19 @@
         </is>
       </c>
       <c r="C17">
-        <v>1142</v>
+        <v>1287</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E17">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>1017</v>
+        <v>1029</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>772</v>
+        <v>816</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>760</v>
+        <v>799</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>756</v>
+        <v>772</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>550</v>
+        <v>667</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -980,7 +980,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>P2-t7</t>
+          <t>P4-t4</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -989,26 +989,26 @@
         </is>
       </c>
       <c r="C23">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E23">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>P4-t4</t>
+          <t>P2-t7</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1017,26 +1017,26 @@
         </is>
       </c>
       <c r="C24">
-        <v>351</v>
+        <v>418</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E24">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>P1-t5</t>
+          <t>P3-t9</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1045,15 +1045,15 @@
         </is>
       </c>
       <c r="C25">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E25">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>P3-t9</t>
+          <t>P8-t5</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1073,7 +1073,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>306</v>
+        <v>364</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1081,18 +1081,18 @@
         </is>
       </c>
       <c r="E26">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>P2-t8</t>
+          <t>P1-t5</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1101,15 +1101,15 @@
         </is>
       </c>
       <c r="C27">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E27">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1148,7 +1148,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>P2-t6</t>
+          <t>P2-t8</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1165,7 +1165,7 @@
         </is>
       </c>
       <c r="E29">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>P11-t4</t>
+          <t>P2-t6</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1185,26 +1185,26 @@
         </is>
       </c>
       <c r="C30">
-        <v>243</v>
+        <v>289</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E30">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>P9-t4</t>
+          <t>P1-t7</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1213,26 +1213,26 @@
         </is>
       </c>
       <c r="C31">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E31">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>P1-t7</t>
+          <t>P11-t4</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1241,26 +1241,26 @@
         </is>
       </c>
       <c r="C32">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E32">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>P8-t5</t>
+          <t>P9-t4</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="C33">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1277,18 +1277,18 @@
         </is>
       </c>
       <c r="E33">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>P10-t7</t>
+          <t>P4-t7</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1297,11 +1297,11 @@
         </is>
       </c>
       <c r="C34">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E34">
@@ -1309,14 +1309,14 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>P1-t6</t>
+          <t>P10-t7</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1325,26 +1325,26 @@
         </is>
       </c>
       <c r="C35">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E35">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>P8-t4</t>
+          <t>P1-t6</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1353,26 +1353,26 @@
         </is>
       </c>
       <c r="C36">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E36">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>P4-t7</t>
+          <t>P8-t4</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1381,15 +1381,15 @@
         </is>
       </c>
       <c r="C37">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E37">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -1400,7 +1400,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>P2-t9</t>
+          <t>P8-t6</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1409,19 +1409,19 @@
         </is>
       </c>
       <c r="C38">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E38">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="C39">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>P8-t6</t>
+          <t>P2-t9</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1465,19 +1465,19 @@
         </is>
       </c>
       <c r="C40">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E40">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
         </is>
       </c>
       <c r="C41">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="C42">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>P10-t8</t>
+          <t>P12-t6</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1549,15 +1549,15 @@
         </is>
       </c>
       <c r="C43">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E43">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
@@ -1568,7 +1568,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>P12-t6</t>
+          <t>P10-t8</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1577,15 +1577,15 @@
         </is>
       </c>
       <c r="C44">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E44">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
@@ -1605,7 +1605,7 @@
         </is>
       </c>
       <c r="C45">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>P5-t1</t>
+          <t>P10-t9</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="C46">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1641,18 +1641,18 @@
         </is>
       </c>
       <c r="E46">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>P4-t1</t>
+          <t>P5-t1</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1661,11 +1661,11 @@
         </is>
       </c>
       <c r="C47">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E47">
@@ -1680,7 +1680,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>P10-t9</t>
+          <t>P4-t1</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1689,26 +1689,26 @@
         </is>
       </c>
       <c r="C48">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E48">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>P1-t1</t>
+          <t>P1-t8</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="C49">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1725,7 +1725,7 @@
         </is>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>P5-t6</t>
+          <t>P1-t1</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1745,26 +1745,26 @@
         </is>
       </c>
       <c r="C50">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E50">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>P2-t2</t>
+          <t>P5-t6</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1773,7 +1773,7 @@
         </is>
       </c>
       <c r="C51">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1781,18 +1781,18 @@
         </is>
       </c>
       <c r="E51">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>P1-t8</t>
+          <t>P2-t2</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1801,15 +1801,15 @@
         </is>
       </c>
       <c r="C52">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E52">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>P7-t1</t>
+          <t>P8-t9</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1833,22 +1833,22 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E53">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>P3-t1</t>
+          <t>P7-t1</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1857,11 +1857,11 @@
         </is>
       </c>
       <c r="C54">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E54">
@@ -1869,14 +1869,14 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>P6-t1</t>
+          <t>P3-t1</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1885,11 +1885,11 @@
         </is>
       </c>
       <c r="C55">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E55">
@@ -1897,14 +1897,14 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>P8-t9</t>
+          <t>P6-t1</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1917,15 +1917,15 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E56">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="C57">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1960,7 +1960,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>P11-t2</t>
+          <t>P10-t6</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1969,15 +1969,15 @@
         </is>
       </c>
       <c r="C58">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E58">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>P10-t6</t>
+          <t>P11-t2</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1997,15 +1997,15 @@
         </is>
       </c>
       <c r="C59">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E59">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="C60">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         </is>
       </c>
       <c r="C61">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         </is>
       </c>
       <c r="C62">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         </is>
       </c>
       <c r="C63">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="C66">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2249,7 +2249,7 @@
         </is>
       </c>
       <c r="C68">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="C69">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>P7-t2</t>
+          <t>P1-t9</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2313,18 +2313,18 @@
         </is>
       </c>
       <c r="E70">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>P7-t3</t>
+          <t>P7-t2</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2333,7 +2333,7 @@
         </is>
       </c>
       <c r="C71">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2341,7 +2341,7 @@
         </is>
       </c>
       <c r="E71">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -2352,7 +2352,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>P1-t3</t>
+          <t>P7-t3</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2373,14 +2373,14 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>P6-t2</t>
+          <t>P1-t3</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2393,22 +2393,22 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E73">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>P1-t9</t>
+          <t>P6-t2</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2417,19 +2417,19 @@
         </is>
       </c>
       <c r="C74">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E74">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
         </is>
       </c>
       <c r="C75">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>P4-t2</t>
+          <t>P9-t3</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2473,26 +2473,26 @@
         </is>
       </c>
       <c r="C76">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E76">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>P9-t3</t>
+          <t>P4-t2</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2501,19 +2501,19 @@
         </is>
       </c>
       <c r="C77">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E77">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
         </is>
       </c>
       <c r="C78">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -2585,7 +2585,7 @@
         </is>
       </c>
       <c r="C80">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -2613,7 +2613,7 @@
         </is>
       </c>
       <c r="C81">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2669,7 +2669,7 @@
         </is>
       </c>
       <c r="C83">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>P8-t2</t>
+          <t>P5-t5</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2701,11 +2701,11 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E84">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
@@ -2716,7 +2716,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>P5-t9</t>
+          <t>P8-t2</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2725,15 +2725,15 @@
         </is>
       </c>
       <c r="C85">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E85">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>P5-t5</t>
+          <t>P5-t9</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2761,7 +2761,7 @@
         </is>
       </c>
       <c r="E86">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -2837,7 +2837,7 @@
         </is>
       </c>
       <c r="C89">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2865,7 +2865,7 @@
         </is>
       </c>
       <c r="C90">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -2884,7 +2884,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>P8-t3</t>
+          <t>P4-t9</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2893,15 +2893,15 @@
         </is>
       </c>
       <c r="C91">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E91">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>P4-t9</t>
+          <t>P12-t8</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2929,18 +2929,18 @@
         </is>
       </c>
       <c r="E92">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>D</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>P12-t8</t>
+          <t>P8-t3</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2949,26 +2949,26 @@
         </is>
       </c>
       <c r="C93">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E93">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>P6-t6</t>
+          <t>P6-t7</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="E94">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>P6-t7</t>
+          <t>P6-t6</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -3013,7 +3013,7 @@
         </is>
       </c>
       <c r="E95">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
